--- a/Test/BO/Error_25.xlsx
+++ b/Test/BO/Error_25.xlsx
@@ -423,34 +423,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.035848836929446</v>
+        <v>0.370115737471213</v>
       </c>
       <c r="B1" t="n">
-        <v>1.193196770636904</v>
+        <v>0.2512984077726066</v>
       </c>
       <c r="C1" t="n">
-        <v>0.6983926075688077</v>
+        <v>0.7653967107011701</v>
       </c>
       <c r="D1" t="n">
-        <v>1.026724766883288</v>
+        <v>1.506141823457481</v>
       </c>
       <c r="E1" t="n">
-        <v>2.703141148638482</v>
+        <v>2.972049483822282</v>
       </c>
       <c r="F1" t="n">
-        <v>2.592371908628861</v>
+        <v>2.723393978600402</v>
       </c>
       <c r="G1" t="n">
-        <v>0.812946928492783</v>
+        <v>1.017123426556175</v>
       </c>
       <c r="H1" t="n">
-        <v>1.010906622900392</v>
+        <v>0.2792117014369455</v>
       </c>
       <c r="I1" t="n">
-        <v>2.562674528021729</v>
+        <v>2.20659652044416</v>
       </c>
       <c r="J1" t="n">
-        <v>3.328749363396398</v>
+        <v>2.951100652922076</v>
       </c>
     </row>
   </sheetData>

--- a/Test/BO/Error_25.xlsx
+++ b/Test/BO/Error_25.xlsx
@@ -413,47 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>0.370115737471213</v>
-      </c>
-      <c r="B1" t="n">
-        <v>0.2512984077726066</v>
-      </c>
-      <c r="C1" t="n">
-        <v>0.7653967107011701</v>
-      </c>
-      <c r="D1" t="n">
-        <v>1.506141823457481</v>
-      </c>
-      <c r="E1" t="n">
-        <v>2.972049483822282</v>
-      </c>
-      <c r="F1" t="n">
-        <v>2.723393978600402</v>
-      </c>
-      <c r="G1" t="n">
-        <v>1.017123426556175</v>
-      </c>
-      <c r="H1" t="n">
-        <v>0.2792117014369455</v>
-      </c>
-      <c r="I1" t="n">
-        <v>2.20659652044416</v>
-      </c>
-      <c r="J1" t="n">
-        <v>2.951100652922076</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>